--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_1_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_1_square_0.5_.xlsx
@@ -571,39 +571,39 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.57000000000009</v>
+        <v>22.42000000000007</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.167954621905665e-13</v>
+        <v>1.884714606603666e-12</v>
       </c>
       <c r="H2" t="n">
-        <v>3.637613086565954e-13</v>
+        <v>5.413341371674005e-12</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>48.3153932349503</v>
+        <v>44.54479696061006</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[35.43076316994754, 61.20002329995306]</t>
+          <t>[31.351176566699593, 57.738417354520536]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.419131727217973e-12</v>
+        <v>2.900701900898639e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>4.419131727217973e-12</v>
+        <v>2.900701900898639e-10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.679289766783733</v>
+        <v>1.717026615475501</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.3522370781217328, 2.0063424554457336]</t>
+          <t>[1.3899739268135, 2.0440793041375027]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>67.31114576424315</v>
+        <v>63.50822187369947</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[59.23265871887532, 75.38963280961099]</t>
+          <t>[55.601269892907496, 71.41517385449144]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.53777777777784</v>
+        <v>16.29321321321326</v>
       </c>
       <c r="X2" t="n">
-        <v>15.36296296296302</v>
+        <v>15.12620620620625</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.71259259259266</v>
+        <v>17.46022022022028</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.62000000000041</v>
+        <v>24.72000000000043</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>4.290717003382248e-16</v>
+        <v>3.566981605221386e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>44.61443194164083</v>
+        <v>50.39240615471194</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[34.59017998010709, 54.638683903174574]</t>
+          <t>[40.42894146600064, 60.35587084342323]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.654158357987773</v>
+        <v>-2.566105711040311</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.8931583997023114, -2.4151583162732346]</t>
+          <t>[-2.7673689040630816, -2.364842518017541]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>69.35749965622733</v>
+        <v>65.25210718573793</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[63.95365556968011, 74.76134374277456]</t>
+          <t>[60.02104237168578, 70.48317199979007]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.40004004004021</v>
+        <v>10.09585585585603</v>
       </c>
       <c r="X3" t="n">
-        <v>9.463543543543704</v>
+        <v>9.304024024024182</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.33653653653672</v>
+        <v>10.88768768768788</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_1_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_1_square_0.5_.xlsx
@@ -571,39 +571,39 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.42000000000007</v>
+        <v>22.28000000000004</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.884714606603666e-12</v>
+        <v>2.220446049250313e-15</v>
       </c>
       <c r="H2" t="n">
-        <v>5.413341371674005e-12</v>
+        <v>6.911894316732493e-15</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>44.54479696061006</v>
+        <v>49.01796760106018</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[31.351176566699593, 57.738417354520536]</t>
+          <t>[37.619122620734096, 60.41681258138626]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.900701900898639e-10</v>
+        <v>6.217248937900877e-15</v>
       </c>
       <c r="N2" t="n">
-        <v>2.900701900898639e-10</v>
+        <v>6.217248937900877e-15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.717026615475501</v>
+        <v>1.566079220708425</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.3899739268135, 2.0440793041375027]</t>
+          <t>[1.2893423303021168, 1.8428161111147334]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>63.50822187369947</v>
+        <v>60.17231725364673</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[55.601269892907496, 71.41517385449144]</t>
+          <t>[52.54945536221693, 67.79517914507653]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.29321321321326</v>
+        <v>16.72672672672676</v>
       </c>
       <c r="X2" t="n">
-        <v>15.12620620620625</v>
+        <v>15.74542542542546</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.46022022022028</v>
+        <v>17.70802802802806</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.72000000000043</v>
+        <v>24.77000000000043</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>3.566981605221386e-16</v>
+        <v>3.731842099580358e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>50.39240615471194</v>
+        <v>50.01925035779351</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[40.42894146600064, 60.35587084342323]</t>
+          <t>[39.57202211588316, 60.46647859970386]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.566105711040311</v>
+        <v>-2.327105669325773</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.7673689040630816, -2.364842518017541]</t>
+          <t>[-2.5409478119124653, -2.11326352673908]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>65.25210718573793</v>
+        <v>68.55920266638603</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[60.02104237168578, 70.48317199979007]</t>
+          <t>[63.20602822817018, 73.91237710460187]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.09585585585603</v>
+        <v>9.174074074074234</v>
       </c>
       <c r="X3" t="n">
-        <v>9.304024024024182</v>
+        <v>8.331051051051196</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.88768768768788</v>
+        <v>10.01709709709727</v>
       </c>
     </row>
   </sheetData>
